--- a/csv/model/sector_ethanol/formula_sector_ethanol_AT.xlsx
+++ b/csv/model/sector_ethanol/formula_sector_ethanol_AT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Brad_Griffin\CIMS\cims-models\csv\model\sector_ethanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\sector_ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2381028-4749-4D1C-9AE5-A126D0DE61EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE64D0B-46A9-407F-B4BD-DDD59AD9BDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84FFE343-A718-40DF-B693-E6B92088C5B7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5A2C740-2916-455C-A255-4282056C2FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="106">
   <si>
-    <t>CIMS.CAN.AT.Biodiesel.Steam</t>
+    <t>CIMS.CAN.AT.Ethanol.Steam</t>
   </si>
   <si>
     <t>&lt;-- Navigate by typing to search</t>
@@ -297,9 +297,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>CIMS.CAN.AT.Ethanol.Steam</t>
-  </si>
-  <si>
     <t>Cellulosic ethanol</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
   </si>
   <si>
     <t>Steam</t>
-  </si>
-  <si>
-    <t>Node Tech Compete</t>
   </si>
   <si>
     <t>Boilers Electric</t>
@@ -48968,11 +48962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744B796E-06E1-40E0-83B6-5D3F15F4C714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C45CB8-B8B7-4AD4-81AC-82E947691870}">
   <dimension ref="A1:X233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X247"/>
+      <selection sqref="A1:X233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51963,7 +51957,7 @@
         <v>54</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L54" t="s">
         <v>19</v>
@@ -52204,7 +52198,7 @@
         <v>64</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
         <v>7</v>
@@ -52227,7 +52221,7 @@
         <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s">
         <v>67</v>
@@ -52296,7 +52290,7 @@
         <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
         <v>69</v>
@@ -52365,7 +52359,7 @@
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s">
         <v>70</v>
@@ -52434,7 +52428,7 @@
         <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
         <v>62</v>
@@ -52463,7 +52457,7 @@
         <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s">
         <v>72</v>
@@ -52532,7 +52526,7 @@
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s">
         <v>73</v>
@@ -52601,7 +52595,7 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s">
         <v>75</v>
@@ -52670,7 +52664,7 @@
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
@@ -52742,13 +52736,13 @@
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s">
         <v>54</v>
       </c>
       <c r="J68" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>19</v>
@@ -52811,7 +52805,7 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s">
         <v>18</v>
@@ -52834,7 +52828,7 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -52857,7 +52851,7 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s">
         <v>58</v>
@@ -52923,7 +52917,7 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s">
         <v>60</v>
@@ -52986,10 +52980,10 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
         <v>80</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
       </c>
       <c r="G73" t="s">
         <v>7</v>
@@ -53009,10 +53003,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
         <v>80</v>
-      </c>
-      <c r="F74" t="s">
-        <v>81</v>
       </c>
       <c r="G74" t="s">
         <v>67</v>
@@ -53078,10 +53072,10 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
         <v>80</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
       </c>
       <c r="G75" t="s">
         <v>69</v>
@@ -53147,10 +53141,10 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
         <v>80</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
       </c>
       <c r="G76" t="s">
         <v>70</v>
@@ -53216,10 +53210,10 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
         <v>80</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
       </c>
       <c r="G77" t="s">
         <v>62</v>
@@ -53245,10 +53239,10 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s">
         <v>80</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
       </c>
       <c r="G78" t="s">
         <v>72</v>
@@ -53314,10 +53308,10 @@
         <v>17</v>
       </c>
       <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
         <v>80</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
       </c>
       <c r="G79" t="s">
         <v>73</v>
@@ -53383,10 +53377,10 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" t="s">
         <v>80</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
       </c>
       <c r="G80" t="s">
         <v>75</v>
@@ -53452,10 +53446,10 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
         <v>80</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
       </c>
       <c r="G81" t="s">
         <v>54</v>
@@ -53524,10 +53518,10 @@
         <v>17</v>
       </c>
       <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s">
         <v>80</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
       </c>
       <c r="G82" t="s">
         <v>54</v>
@@ -53596,10 +53590,10 @@
         <v>17</v>
       </c>
       <c r="E83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s">
         <v>80</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
       </c>
       <c r="G83" t="s">
         <v>54</v>
@@ -53668,10 +53662,10 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s">
         <v>7</v>
@@ -53691,10 +53685,10 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s">
         <v>67</v>
@@ -53760,10 +53754,10 @@
         <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s">
         <v>69</v>
@@ -53829,10 +53823,10 @@
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
@@ -53898,10 +53892,10 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G88" t="s">
         <v>62</v>
@@ -53927,10 +53921,10 @@
         <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s">
         <v>72</v>
@@ -53996,10 +53990,10 @@
         <v>17</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s">
         <v>73</v>
@@ -54065,10 +54059,10 @@
         <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
         <v>75</v>
@@ -54134,10 +54128,10 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
         <v>54</v>
@@ -54206,10 +54200,10 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G93" t="s">
         <v>54</v>
@@ -54278,10 +54272,10 @@
         <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G94" t="s">
         <v>54</v>
@@ -54350,10 +54344,10 @@
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s">
         <v>7</v>
@@ -54373,10 +54367,10 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s">
         <v>67</v>
@@ -54442,10 +54436,10 @@
         <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s">
         <v>69</v>
@@ -54511,10 +54505,10 @@
         <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G98" t="s">
         <v>70</v>
@@ -54580,10 +54574,10 @@
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s">
         <v>62</v>
@@ -54609,10 +54603,10 @@
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s">
         <v>72</v>
@@ -54678,10 +54672,10 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G101" t="s">
         <v>73</v>
@@ -54747,10 +54741,10 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s">
         <v>75</v>
@@ -54816,10 +54810,10 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G103" t="s">
         <v>54</v>
@@ -54888,10 +54882,10 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s">
         <v>54</v>
@@ -54960,10 +54954,10 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G105" t="s">
         <v>54</v>
@@ -55020,7 +55014,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -55032,7 +55026,7 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" t="s">
         <v>18</v>
@@ -55043,7 +55037,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -55055,18 +55049,18 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -55078,7 +55072,7 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s">
         <v>58</v>
@@ -55132,7 +55126,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -55144,7 +55138,7 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G109" t="s">
         <v>60</v>
@@ -55195,7 +55189,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -55207,10 +55201,10 @@
         <v>17</v>
       </c>
       <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" t="s">
         <v>84</v>
-      </c>
-      <c r="F110" t="s">
-        <v>86</v>
       </c>
       <c r="G110" t="s">
         <v>7</v>
@@ -55218,7 +55212,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -55230,10 +55224,10 @@
         <v>17</v>
       </c>
       <c r="E111" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" t="s">
         <v>84</v>
-      </c>
-      <c r="F111" t="s">
-        <v>86</v>
       </c>
       <c r="G111" t="s">
         <v>67</v>
@@ -55287,7 +55281,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -55299,10 +55293,10 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" t="s">
         <v>84</v>
-      </c>
-      <c r="F112" t="s">
-        <v>86</v>
       </c>
       <c r="G112" t="s">
         <v>69</v>
@@ -55356,7 +55350,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -55368,10 +55362,10 @@
         <v>17</v>
       </c>
       <c r="E113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" t="s">
         <v>84</v>
-      </c>
-      <c r="F113" t="s">
-        <v>86</v>
       </c>
       <c r="G113" t="s">
         <v>70</v>
@@ -55425,7 +55419,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -55437,10 +55431,10 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" t="s">
         <v>84</v>
-      </c>
-      <c r="F114" t="s">
-        <v>86</v>
       </c>
       <c r="G114" t="s">
         <v>62</v>
@@ -55454,7 +55448,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -55466,10 +55460,10 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" t="s">
         <v>84</v>
-      </c>
-      <c r="F115" t="s">
-        <v>86</v>
       </c>
       <c r="G115" t="s">
         <v>72</v>
@@ -55523,7 +55517,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -55535,10 +55529,10 @@
         <v>17</v>
       </c>
       <c r="E116" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" t="s">
         <v>84</v>
-      </c>
-      <c r="F116" t="s">
-        <v>86</v>
       </c>
       <c r="G116" t="s">
         <v>73</v>
@@ -55592,7 +55586,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -55604,10 +55598,10 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
+        <v>83</v>
+      </c>
+      <c r="F117" t="s">
         <v>84</v>
-      </c>
-      <c r="F117" t="s">
-        <v>86</v>
       </c>
       <c r="G117" t="s">
         <v>75</v>
@@ -55661,7 +55655,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -55673,10 +55667,10 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
+        <v>83</v>
+      </c>
+      <c r="F118" t="s">
         <v>84</v>
-      </c>
-      <c r="F118" t="s">
-        <v>86</v>
       </c>
       <c r="G118" t="s">
         <v>54</v>
@@ -55733,7 +55727,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -55745,10 +55739,10 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G119" t="s">
         <v>7</v>
@@ -55756,7 +55750,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -55768,10 +55762,10 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s">
         <v>67</v>
@@ -55825,7 +55819,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -55837,10 +55831,10 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s">
         <v>69</v>
@@ -55894,7 +55888,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -55906,10 +55900,10 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G122" t="s">
         <v>70</v>
@@ -55963,7 +55957,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -55975,10 +55969,10 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -55992,7 +55986,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -56004,10 +55998,10 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G124" t="s">
         <v>72</v>
@@ -56061,7 +56055,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -56073,10 +56067,10 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G125" t="s">
         <v>73</v>
@@ -56130,7 +56124,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -56142,10 +56136,10 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G126" t="s">
         <v>75</v>
@@ -56199,7 +56193,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -56211,10 +56205,10 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G127" t="s">
         <v>54</v>
@@ -56271,7 +56265,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -56283,10 +56277,10 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F128" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s">
         <v>7</v>
@@ -56294,7 +56288,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -56306,10 +56300,10 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F129" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s">
         <v>67</v>
@@ -56363,7 +56357,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -56375,10 +56369,10 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F130" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G130" t="s">
         <v>69</v>
@@ -56432,7 +56426,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -56444,10 +56438,10 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F131" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G131" t="s">
         <v>70</v>
@@ -56501,7 +56495,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -56513,10 +56507,10 @@
         <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F132" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G132" t="s">
         <v>62</v>
@@ -56530,7 +56524,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -56542,10 +56536,10 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G133" t="s">
         <v>72</v>
@@ -56599,7 +56593,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -56611,10 +56605,10 @@
         <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F134" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G134" t="s">
         <v>73</v>
@@ -56668,7 +56662,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -56680,10 +56674,10 @@
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F135" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G135" t="s">
         <v>75</v>
@@ -56737,7 +56731,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -56749,10 +56743,10 @@
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G136" t="s">
         <v>54</v>
@@ -56809,7 +56803,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -56821,10 +56815,10 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -56832,7 +56826,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -56844,10 +56838,10 @@
         <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F138" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
         <v>67</v>
@@ -56901,7 +56895,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -56913,10 +56907,10 @@
         <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
         <v>69</v>
@@ -56970,7 +56964,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -56982,10 +56976,10 @@
         <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F140" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s">
         <v>70</v>
@@ -57039,7 +57033,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -57051,10 +57045,10 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G141" t="s">
         <v>62</v>
@@ -57068,7 +57062,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -57080,10 +57074,10 @@
         <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s">
         <v>72</v>
@@ -57137,7 +57131,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -57149,10 +57143,10 @@
         <v>17</v>
       </c>
       <c r="E143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G143" t="s">
         <v>73</v>
@@ -57206,7 +57200,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -57218,10 +57212,10 @@
         <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F144" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s">
         <v>75</v>
@@ -57275,7 +57269,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -57287,10 +57281,10 @@
         <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F145" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
@@ -57347,7 +57341,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -57359,10 +57353,10 @@
         <v>17</v>
       </c>
       <c r="E146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F146" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G146" t="s">
         <v>54</v>
@@ -57419,7 +57413,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -57431,16 +57425,16 @@
         <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F147" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G147" t="s">
         <v>54</v>
       </c>
       <c r="J147" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L147" t="s">
         <v>74</v>
@@ -57491,7 +57485,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -57503,10 +57497,10 @@
         <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G148" t="s">
         <v>7</v>
@@ -57514,7 +57508,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -57526,10 +57520,10 @@
         <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G149" t="s">
         <v>67</v>
@@ -57583,7 +57577,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -57595,10 +57589,10 @@
         <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F150" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
         <v>69</v>
@@ -57652,7 +57646,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -57664,10 +57658,10 @@
         <v>17</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G151" t="s">
         <v>70</v>
@@ -57721,7 +57715,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -57733,10 +57727,10 @@
         <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G152" t="s">
         <v>62</v>
@@ -57750,7 +57744,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -57762,10 +57756,10 @@
         <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G153" t="s">
         <v>72</v>
@@ -57819,7 +57813,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -57831,10 +57825,10 @@
         <v>17</v>
       </c>
       <c r="E154" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F154" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G154" t="s">
         <v>73</v>
@@ -57888,7 +57882,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -57900,10 +57894,10 @@
         <v>17</v>
       </c>
       <c r="E155" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G155" t="s">
         <v>75</v>
@@ -57957,7 +57951,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -57969,10 +57963,10 @@
         <v>17</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F156" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G156" t="s">
         <v>54</v>
@@ -58029,7 +58023,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -58041,10 +58035,10 @@
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G157" t="s">
         <v>54</v>
@@ -58101,7 +58095,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -58113,16 +58107,16 @@
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F158" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G158" t="s">
         <v>54</v>
       </c>
       <c r="J158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L158" t="s">
         <v>74</v>
@@ -58173,7 +58167,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -58185,10 +58179,10 @@
         <v>17</v>
       </c>
       <c r="E159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F159" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G159" t="s">
         <v>7</v>
@@ -58196,7 +58190,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -58208,10 +58202,10 @@
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F160" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G160" t="s">
         <v>67</v>
@@ -58265,7 +58259,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -58277,10 +58271,10 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G161" t="s">
         <v>69</v>
@@ -58334,7 +58328,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -58346,10 +58340,10 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F162" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G162" t="s">
         <v>70</v>
@@ -58403,7 +58397,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -58415,10 +58409,10 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F163" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G163" t="s">
         <v>62</v>
@@ -58432,7 +58426,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -58444,10 +58438,10 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F164" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G164" t="s">
         <v>72</v>
@@ -58501,7 +58495,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -58513,10 +58507,10 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F165" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G165" t="s">
         <v>73</v>
@@ -58570,7 +58564,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -58582,10 +58576,10 @@
         <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F166" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G166" t="s">
         <v>75</v>
@@ -58639,7 +58633,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -58651,10 +58645,10 @@
         <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F167" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G167" t="s">
         <v>54</v>
@@ -58711,7 +58705,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -58723,10 +58717,10 @@
         <v>17</v>
       </c>
       <c r="E168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F168" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G168" t="s">
         <v>54</v>
@@ -58783,7 +58777,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -58795,10 +58789,10 @@
         <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F169" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G169" t="s">
         <v>7</v>
@@ -58806,7 +58800,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -58818,10 +58812,10 @@
         <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F170" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s">
         <v>67</v>
@@ -58875,7 +58869,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -58887,10 +58881,10 @@
         <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F171" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G171" t="s">
         <v>69</v>
@@ -58944,7 +58938,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -58956,10 +58950,10 @@
         <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F172" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G172" t="s">
         <v>70</v>
@@ -59013,7 +59007,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -59025,10 +59019,10 @@
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G173" t="s">
         <v>62</v>
@@ -59042,7 +59036,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -59054,10 +59048,10 @@
         <v>17</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F174" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G174" t="s">
         <v>72</v>
@@ -59111,7 +59105,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -59123,10 +59117,10 @@
         <v>17</v>
       </c>
       <c r="E175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F175" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G175" t="s">
         <v>73</v>
@@ -59180,7 +59174,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -59192,10 +59186,10 @@
         <v>17</v>
       </c>
       <c r="E176" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F176" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G176" t="s">
         <v>75</v>
@@ -59249,7 +59243,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -59261,10 +59255,10 @@
         <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F177" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G177" t="s">
         <v>54</v>
@@ -59321,7 +59315,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -59333,10 +59327,10 @@
         <v>17</v>
       </c>
       <c r="E178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F178" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G178" t="s">
         <v>54</v>
@@ -59393,7 +59387,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -59405,10 +59399,10 @@
         <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F179" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G179" t="s">
         <v>7</v>
@@ -59416,7 +59410,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -59428,10 +59422,10 @@
         <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F180" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G180" t="s">
         <v>67</v>
@@ -59485,7 +59479,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -59497,10 +59491,10 @@
         <v>17</v>
       </c>
       <c r="E181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F181" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G181" t="s">
         <v>69</v>
@@ -59554,7 +59548,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -59566,10 +59560,10 @@
         <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F182" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G182" t="s">
         <v>70</v>
@@ -59623,7 +59617,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -59635,10 +59629,10 @@
         <v>17</v>
       </c>
       <c r="E183" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G183" t="s">
         <v>62</v>
@@ -59652,7 +59646,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -59664,10 +59658,10 @@
         <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F184" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G184" t="s">
         <v>72</v>
@@ -59721,7 +59715,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -59733,10 +59727,10 @@
         <v>17</v>
       </c>
       <c r="E185" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F185" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G185" t="s">
         <v>73</v>
@@ -59790,7 +59784,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -59802,10 +59796,10 @@
         <v>17</v>
       </c>
       <c r="E186" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F186" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G186" t="s">
         <v>75</v>
@@ -59859,7 +59853,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -59871,10 +59865,10 @@
         <v>17</v>
       </c>
       <c r="E187" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F187" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G187" t="s">
         <v>54</v>
@@ -59931,7 +59925,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -59943,10 +59937,10 @@
         <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F188" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G188" t="s">
         <v>54</v>
@@ -60003,7 +59997,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -60015,10 +60009,10 @@
         <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G189" t="s">
         <v>7</v>
@@ -60026,7 +60020,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -60038,10 +60032,10 @@
         <v>17</v>
       </c>
       <c r="E190" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F190" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G190" t="s">
         <v>67</v>
@@ -60095,7 +60089,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -60107,10 +60101,10 @@
         <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F191" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G191" t="s">
         <v>69</v>
@@ -60164,7 +60158,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -60176,10 +60170,10 @@
         <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F192" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G192" t="s">
         <v>70</v>
@@ -60233,7 +60227,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -60245,10 +60239,10 @@
         <v>17</v>
       </c>
       <c r="E193" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F193" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G193" t="s">
         <v>62</v>
@@ -60262,7 +60256,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -60274,10 +60268,10 @@
         <v>17</v>
       </c>
       <c r="E194" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F194" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G194" t="s">
         <v>72</v>
@@ -60331,7 +60325,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -60343,10 +60337,10 @@
         <v>17</v>
       </c>
       <c r="E195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F195" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G195" t="s">
         <v>73</v>
@@ -60400,7 +60394,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -60412,10 +60406,10 @@
         <v>17</v>
       </c>
       <c r="E196" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F196" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G196" t="s">
         <v>75</v>
@@ -60469,7 +60463,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
@@ -60481,10 +60475,10 @@
         <v>17</v>
       </c>
       <c r="E197" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F197" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G197" t="s">
         <v>54</v>
@@ -60541,7 +60535,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -60553,10 +60547,10 @@
         <v>17</v>
       </c>
       <c r="E198" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F198" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G198" t="s">
         <v>54</v>
@@ -60613,7 +60607,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
@@ -60625,16 +60619,16 @@
         <v>17</v>
       </c>
       <c r="E199" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F199" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G199" t="s">
         <v>54</v>
       </c>
       <c r="J199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L199" t="s">
         <v>74</v>
@@ -60685,7 +60679,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -60697,7 +60691,7 @@
         <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G200" t="s">
         <v>18</v>
@@ -60708,7 +60702,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -60720,18 +60714,18 @@
         <v>17</v>
       </c>
       <c r="E201" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G201" t="s">
         <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -60743,16 +60737,16 @@
         <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G202" t="s">
         <v>54</v>
       </c>
       <c r="J202" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K202" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L202" t="s">
         <v>47</v>
@@ -60803,7 +60797,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -60815,16 +60809,16 @@
         <v>17</v>
       </c>
       <c r="E203" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G203" t="s">
         <v>54</v>
       </c>
       <c r="J203" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K203" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L203" t="s">
         <v>47</v>
@@ -60875,7 +60869,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -60887,7 +60881,7 @@
         <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G204" t="s">
         <v>18</v>
@@ -60898,7 +60892,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -60910,7 +60904,7 @@
         <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G205" t="s">
         <v>20</v>
@@ -60921,7 +60915,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -60933,13 +60927,13 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G206" t="s">
         <v>58</v>
       </c>
       <c r="K206" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L206" t="s">
         <v>59</v>
@@ -60990,7 +60984,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -61002,7 +60996,7 @@
         <v>17</v>
       </c>
       <c r="E207" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G207" t="s">
         <v>60</v>
@@ -61053,7 +61047,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -61065,10 +61059,10 @@
         <v>17</v>
       </c>
       <c r="E208" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F208" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G208" t="s">
         <v>7</v>
@@ -61076,7 +61070,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -61088,16 +61082,16 @@
         <v>17</v>
       </c>
       <c r="E209" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F209" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G209" t="s">
         <v>67</v>
       </c>
       <c r="K209" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L209" t="s">
         <v>68</v>
@@ -61148,7 +61142,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -61160,16 +61154,16 @@
         <v>17</v>
       </c>
       <c r="E210" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F210" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G210" t="s">
         <v>69</v>
       </c>
       <c r="K210" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L210" t="s">
         <v>68</v>
@@ -61220,7 +61214,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -61232,16 +61226,16 @@
         <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F211" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G211" t="s">
         <v>70</v>
       </c>
       <c r="K211" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L211" t="s">
         <v>71</v>
@@ -61292,7 +61286,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -61304,16 +61298,16 @@
         <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F212" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G212" t="s">
         <v>62</v>
       </c>
       <c r="K212" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L212" t="s">
         <v>59</v>
@@ -61324,7 +61318,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -61336,16 +61330,16 @@
         <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F213" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G213" t="s">
         <v>72</v>
       </c>
       <c r="K213" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L213" t="s">
         <v>47</v>
@@ -61396,7 +61390,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -61408,16 +61402,16 @@
         <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F214" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G214" t="s">
         <v>73</v>
       </c>
       <c r="K214" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L214" t="s">
         <v>74</v>
@@ -61468,7 +61462,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -61480,16 +61474,16 @@
         <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F215" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G215" t="s">
         <v>75</v>
       </c>
       <c r="K215" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L215" t="s">
         <v>74</v>
@@ -61540,7 +61534,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -61552,10 +61546,10 @@
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F216" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G216" t="s">
         <v>54</v>
@@ -61564,7 +61558,7 @@
         <v>27</v>
       </c>
       <c r="K216" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L216" t="s">
         <v>19</v>
@@ -61615,7 +61609,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -61627,19 +61621,19 @@
         <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F217" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G217" t="s">
         <v>54</v>
       </c>
       <c r="J217" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K217" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L217" t="s">
         <v>74</v>
@@ -61690,7 +61684,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -61702,13 +61696,13 @@
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F218" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G218" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H218" t="s">
         <v>45</v>
@@ -61717,7 +61711,7 @@
         <v>46</v>
       </c>
       <c r="K218" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L218" t="s">
         <v>59</v>
@@ -61768,7 +61762,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -61780,7 +61774,7 @@
         <v>17</v>
       </c>
       <c r="E219" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G219" t="s">
         <v>18</v>
@@ -61791,7 +61785,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -61803,7 +61797,7 @@
         <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G220" t="s">
         <v>20</v>
@@ -61814,7 +61808,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -61826,13 +61820,13 @@
         <v>17</v>
       </c>
       <c r="E221" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G221" t="s">
         <v>58</v>
       </c>
       <c r="K221" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L221" t="s">
         <v>59</v>
@@ -61883,7 +61877,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -61895,7 +61889,7 @@
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G222" t="s">
         <v>60</v>
@@ -61946,7 +61940,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -61958,10 +61952,10 @@
         <v>17</v>
       </c>
       <c r="E223" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F223" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G223" t="s">
         <v>7</v>
@@ -61969,7 +61963,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -61981,16 +61975,16 @@
         <v>17</v>
       </c>
       <c r="E224" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F224" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G224" t="s">
         <v>67</v>
       </c>
       <c r="K224" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L224" t="s">
         <v>68</v>
@@ -62041,7 +62035,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -62053,16 +62047,16 @@
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F225" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G225" t="s">
         <v>69</v>
       </c>
       <c r="K225" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L225" t="s">
         <v>68</v>
@@ -62113,7 +62107,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -62125,16 +62119,16 @@
         <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F226" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G226" t="s">
         <v>70</v>
       </c>
       <c r="K226" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L226" t="s">
         <v>71</v>
@@ -62185,7 +62179,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -62197,16 +62191,16 @@
         <v>17</v>
       </c>
       <c r="E227" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F227" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G227" t="s">
         <v>62</v>
       </c>
       <c r="K227" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L227" t="s">
         <v>59</v>
@@ -62217,7 +62211,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -62229,16 +62223,16 @@
         <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F228" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G228" t="s">
         <v>72</v>
       </c>
       <c r="K228" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L228" t="s">
         <v>47</v>
@@ -62289,7 +62283,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -62301,16 +62295,16 @@
         <v>17</v>
       </c>
       <c r="E229" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F229" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G229" t="s">
         <v>73</v>
       </c>
       <c r="K229" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L229" t="s">
         <v>74</v>
@@ -62361,7 +62355,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -62373,16 +62367,16 @@
         <v>17</v>
       </c>
       <c r="E230" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F230" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G230" t="s">
         <v>75</v>
       </c>
       <c r="K230" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L230" t="s">
         <v>74</v>
@@ -62433,7 +62427,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -62445,10 +62439,10 @@
         <v>17</v>
       </c>
       <c r="E231" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F231" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G231" t="s">
         <v>54</v>
@@ -62457,7 +62451,7 @@
         <v>37</v>
       </c>
       <c r="K231" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L231" t="s">
         <v>19</v>
@@ -62508,7 +62502,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -62520,19 +62514,19 @@
         <v>17</v>
       </c>
       <c r="E232" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F232" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G232" t="s">
         <v>54</v>
       </c>
       <c r="J232" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K232" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L232" t="s">
         <v>74</v>
@@ -62583,7 +62577,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -62595,13 +62589,13 @@
         <v>17</v>
       </c>
       <c r="E233" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F233" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G233" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H233" t="s">
         <v>45</v>
@@ -62610,7 +62604,7 @@
         <v>46</v>
       </c>
       <c r="K233" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L233" t="s">
         <v>59</v>
